--- a/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Chillan_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Chillan_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -371,7 +371,7 @@
         </is>
       </c>
       <c r="B17" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B18" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
